--- a/Python/resultados/HW_C009_120.xlsx
+++ b/Python/resultados/HW_C009_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.796875</v>
+        <v>27.79192028378455</v>
       </c>
       <c r="C2" t="n">
-        <v>30.046875</v>
+        <v>30.05194753110972</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.75</v>
+        <v>27.74342111878395</v>
       </c>
       <c r="C3" t="n">
-        <v>30.046875</v>
+        <v>30.04432959408366</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.796875</v>
+        <v>27.80352253831376</v>
       </c>
       <c r="C4" t="n">
-        <v>30.046875</v>
+        <v>30.04787804451952</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.78125</v>
+        <v>27.77638544348756</v>
       </c>
       <c r="C5" t="n">
-        <v>30.046875</v>
+        <v>30.05361456135043</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8125</v>
+        <v>27.81568648223155</v>
       </c>
       <c r="C6" t="n">
-        <v>30.078125</v>
+        <v>30.07292473239581</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.78125</v>
+        <v>27.77566706697283</v>
       </c>
       <c r="C7" t="n">
-        <v>30.046875</v>
+        <v>30.04532183104329</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.78125</v>
+        <v>27.78064485728103</v>
       </c>
       <c r="C8" t="n">
-        <v>30.03125</v>
+        <v>30.02379336207301</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.765625</v>
+        <v>27.76388528385115</v>
       </c>
       <c r="C9" t="n">
-        <v>30.03125</v>
+        <v>30.03525227144778</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.765625</v>
+        <v>27.7606223056024</v>
       </c>
       <c r="C10" t="n">
-        <v>30.046875</v>
+        <v>30.05166986494365</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8125</v>
+        <v>27.81377968849252</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0625</v>
+        <v>30.06028049097981</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.78125</v>
+        <v>27.78255350688013</v>
       </c>
       <c r="C12" t="n">
-        <v>30.046875</v>
+        <v>30.04870122839467</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.65625</v>
+        <v>19.65849188845619</v>
       </c>
       <c r="C2" t="n">
-        <v>25.84375</v>
+        <v>25.84959761299686</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6875</v>
+        <v>19.67991510124479</v>
       </c>
       <c r="C3" t="n">
-        <v>25.796875</v>
+        <v>25.80411902149311</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.65625</v>
+        <v>19.66376740704578</v>
       </c>
       <c r="C4" t="n">
-        <v>25.78125</v>
+        <v>25.78439205124278</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.640625</v>
+        <v>19.63920777154176</v>
       </c>
       <c r="C5" t="n">
-        <v>25.828125</v>
+        <v>25.82807974025393</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.671875</v>
+        <v>19.66933018534947</v>
       </c>
       <c r="C6" t="n">
-        <v>25.859375</v>
+        <v>25.85284403072756</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.65625</v>
+        <v>19.65868365857116</v>
       </c>
       <c r="C7" t="n">
-        <v>25.828125</v>
+        <v>25.83254329819898</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.65625</v>
+        <v>19.65453909434124</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8125</v>
+        <v>25.81550334835927</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.671875</v>
+        <v>19.67448632700927</v>
       </c>
       <c r="C9" t="n">
-        <v>25.84375</v>
+        <v>25.84372877560067</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6875</v>
+        <v>19.68461255960584</v>
       </c>
       <c r="C10" t="n">
-        <v>25.84375</v>
+        <v>25.83938499894241</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.65625</v>
+        <v>19.65208493996195</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8125</v>
+        <v>25.81814612833216</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.65625</v>
+        <v>19.66351189331274</v>
       </c>
       <c r="C12" t="n">
-        <v>25.828125</v>
+        <v>25.82683390061477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.58870232807314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.51692180155847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.57381268532069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.53141173778381</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.58893345443682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.47661076888775</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.608672509545</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.55451958826844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.60293346479738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.5834265626049</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.59997342616882</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.58188092387499</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.61558380071422</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.58421078214695</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.59726110953686</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.52919309973935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.5967687029124</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.54595098752557</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.59301333679739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.5252725731062</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.59656548183027</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.54293988254964</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C009_120.xlsx
+++ b/Python/resultados/HW_C009_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.79192028378455</v>
+        <v>27.74685210548187</v>
       </c>
       <c r="C2" t="n">
-        <v>30.05194753110972</v>
+        <v>29.64072440206422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.74342111878395</v>
+        <v>27.72601770985651</v>
       </c>
       <c r="C3" t="n">
-        <v>30.04432959408366</v>
+        <v>29.64624443768461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.80352253831376</v>
+        <v>27.7472719319219</v>
       </c>
       <c r="C4" t="n">
-        <v>30.04787804451952</v>
+        <v>29.65172153444765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.77638544348756</v>
+        <v>27.74181502452763</v>
       </c>
       <c r="C5" t="n">
-        <v>30.05361456135043</v>
+        <v>29.68502840867663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.81568648223155</v>
+        <v>27.76465161124668</v>
       </c>
       <c r="C6" t="n">
-        <v>30.07292473239581</v>
+        <v>29.66746913951022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.77566706697283</v>
+        <v>27.75525077954714</v>
       </c>
       <c r="C7" t="n">
-        <v>30.04532183104329</v>
+        <v>29.69195915441597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.78064485728103</v>
+        <v>27.72720596662388</v>
       </c>
       <c r="C8" t="n">
-        <v>30.02379336207301</v>
+        <v>29.67984825163132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.76388528385115</v>
+        <v>27.75242302606005</v>
       </c>
       <c r="C9" t="n">
-        <v>30.03525227144778</v>
+        <v>29.68480882278876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7606223056024</v>
+        <v>27.70276239876468</v>
       </c>
       <c r="C10" t="n">
-        <v>30.05166986494365</v>
+        <v>29.64011819060485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.81377968849252</v>
+        <v>27.74171756356102</v>
       </c>
       <c r="C11" t="n">
-        <v>30.06028049097981</v>
+        <v>29.66125357605023</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.78255350688013</v>
+        <v>27.74059681175914</v>
       </c>
       <c r="C12" t="n">
-        <v>30.04870122839467</v>
+        <v>29.66491759178745</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.65849188845619</v>
+        <v>19.64757907530271</v>
       </c>
       <c r="C2" t="n">
-        <v>25.84959761299686</v>
+        <v>25.75139514928111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.67991510124479</v>
+        <v>19.6786220366336</v>
       </c>
       <c r="C3" t="n">
-        <v>25.80411902149311</v>
+        <v>25.73981064852625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.66376740704578</v>
+        <v>19.64580210764992</v>
       </c>
       <c r="C4" t="n">
-        <v>25.78439205124278</v>
+        <v>25.73641512225743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.63920777154176</v>
+        <v>19.66381294214744</v>
       </c>
       <c r="C5" t="n">
-        <v>25.82807974025393</v>
+        <v>25.77400236892506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.66933018534947</v>
+        <v>19.65688034522016</v>
       </c>
       <c r="C6" t="n">
-        <v>25.85284403072756</v>
+        <v>25.70572481385213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.65868365857116</v>
+        <v>19.66018159374165</v>
       </c>
       <c r="C7" t="n">
-        <v>25.83254329819898</v>
+        <v>25.72416372758671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.65453909434124</v>
+        <v>19.64581118505269</v>
       </c>
       <c r="C8" t="n">
-        <v>25.81550334835927</v>
+        <v>25.76654029806438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.67448632700927</v>
+        <v>19.65858708914106</v>
       </c>
       <c r="C9" t="n">
-        <v>25.84372877560067</v>
+        <v>25.78250589836954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.68461255960584</v>
+        <v>19.66137067708744</v>
       </c>
       <c r="C10" t="n">
-        <v>25.83938499894241</v>
+        <v>25.77153838656623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.65208493996195</v>
+        <v>19.65273667786553</v>
       </c>
       <c r="C11" t="n">
-        <v>25.81814612833216</v>
+        <v>25.76661543197593</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.66351189331274</v>
+        <v>19.65713837298422</v>
       </c>
       <c r="C12" t="n">
-        <v>25.82683390061477</v>
+        <v>25.75187118454048</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.58870232807314</v>
+        <v>14.47400272728167</v>
       </c>
       <c r="C2" t="n">
-        <v>21.51692180155847</v>
+        <v>21.46367997847292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.57381268532069</v>
+        <v>14.47863409531755</v>
       </c>
       <c r="C3" t="n">
-        <v>21.53141173778381</v>
+        <v>21.45417981805793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.58893345443682</v>
+        <v>14.45419916273521</v>
       </c>
       <c r="C4" t="n">
-        <v>21.47661076888775</v>
+        <v>21.43588377918806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.608672509545</v>
+        <v>14.48091838115517</v>
       </c>
       <c r="C5" t="n">
-        <v>21.55451958826844</v>
+        <v>21.4336331281387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.60293346479738</v>
+        <v>14.4808618836024</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5834265626049</v>
+        <v>21.42633938928358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.59997342616882</v>
+        <v>14.46120866134584</v>
       </c>
       <c r="C7" t="n">
-        <v>21.58188092387499</v>
+        <v>21.42286026209405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.61558380071422</v>
+        <v>14.50787575119969</v>
       </c>
       <c r="C8" t="n">
-        <v>21.58421078214695</v>
+        <v>21.48007564709545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.59726110953686</v>
+        <v>14.48784222368089</v>
       </c>
       <c r="C9" t="n">
-        <v>21.52919309973935</v>
+        <v>21.46533610255921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.5967687029124</v>
+        <v>14.48527876073434</v>
       </c>
       <c r="C10" t="n">
-        <v>21.54595098752557</v>
+        <v>21.47840060112332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.59301333679739</v>
+        <v>14.49820341914615</v>
       </c>
       <c r="C11" t="n">
-        <v>21.5252725731062</v>
+        <v>21.48126964730731</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.59656548183027</v>
+        <v>14.48090250661989</v>
       </c>
       <c r="C12" t="n">
-        <v>21.54293988254964</v>
+        <v>21.45416583533205</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C009_120.xlsx
+++ b/Python/resultados/HW_C009_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>29.64072440206422</v>
       </c>
+      <c r="D2" t="n">
+        <v>29.47671685291754</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>29.64624443768461</v>
       </c>
+      <c r="D3" t="n">
+        <v>29.48682875013215</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>29.65172153444765</v>
       </c>
+      <c r="D4" t="n">
+        <v>29.48617063050762</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>29.68502840867663</v>
       </c>
+      <c r="D5" t="n">
+        <v>29.50510270647873</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>29.66746913951022</v>
       </c>
+      <c r="D6" t="n">
+        <v>29.48741586850321</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>29.69195915441597</v>
       </c>
+      <c r="D7" t="n">
+        <v>29.5161049584247</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>29.67984825163132</v>
       </c>
+      <c r="D8" t="n">
+        <v>29.50812796519526</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>29.68480882278876</v>
       </c>
+      <c r="D9" t="n">
+        <v>29.50400560309586</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>29.64011819060485</v>
       </c>
+      <c r="D10" t="n">
+        <v>29.47795803331228</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>29.66125357605023</v>
       </c>
+      <c r="D11" t="n">
+        <v>29.50492966540072</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>29.66491759178745</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.49533610339681</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>25.75139514928111</v>
       </c>
+      <c r="D2" t="n">
+        <v>24.63964470218848</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>25.73981064852625</v>
       </c>
+      <c r="D3" t="n">
+        <v>24.63871146386062</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>25.73641512225743</v>
       </c>
+      <c r="D4" t="n">
+        <v>24.64951868131816</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>25.77400236892506</v>
       </c>
+      <c r="D5" t="n">
+        <v>24.68873151081784</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>25.70572481385213</v>
       </c>
+      <c r="D6" t="n">
+        <v>24.60315975267766</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>25.72416372758671</v>
       </c>
+      <c r="D7" t="n">
+        <v>24.62771960733516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>25.76654029806438</v>
       </c>
+      <c r="D8" t="n">
+        <v>24.68932236624421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>25.78250589836954</v>
       </c>
+      <c r="D9" t="n">
+        <v>24.68545612796046</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>25.77153838656623</v>
       </c>
+      <c r="D10" t="n">
+        <v>24.67432028026673</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>25.76661543197593</v>
       </c>
+      <c r="D11" t="n">
+        <v>24.66264436495759</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>25.75187118454048</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.65592288576269</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>21.46367997847292</v>
       </c>
+      <c r="D2" t="n">
+        <v>20.16303095739262</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>21.45417981805793</v>
       </c>
+      <c r="D3" t="n">
+        <v>20.1803572246286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>21.43588377918806</v>
       </c>
+      <c r="D4" t="n">
+        <v>20.13450346831693</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>21.4336331281387</v>
       </c>
+      <c r="D5" t="n">
+        <v>20.14537133142452</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>21.42633938928358</v>
       </c>
+      <c r="D6" t="n">
+        <v>20.12848427765734</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>21.42286026209405</v>
       </c>
+      <c r="D7" t="n">
+        <v>20.14902014947218</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>21.48007564709545</v>
       </c>
+      <c r="D8" t="n">
+        <v>20.18716228585678</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>21.46533610255921</v>
       </c>
+      <c r="D9" t="n">
+        <v>20.16546124025025</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>21.47840060112332</v>
       </c>
+      <c r="D10" t="n">
+        <v>20.18473963704806</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>21.48126964730731</v>
       </c>
+      <c r="D11" t="n">
+        <v>20.17137122087394</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>21.45416583533205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.16095017929212</v>
       </c>
     </row>
   </sheetData>
